--- a/Driving/Earning data.xlsx
+++ b/Driving/Earning data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Practice-Data-Science\Driving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D34A84-9FDE-4F12-9B4A-F65E43C314D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5753C3C4-53C5-4260-AA7F-4EE1B811BE62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18165" yWindow="2850" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
-  <si>
-    <t>App</t>
-  </si>
-  <si>
-    <t>Lyft</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Week</t>
   </si>
@@ -417,99 +411,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="3"/>
-    <col min="9" max="9" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15" style="3" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="3"/>
+    <col min="8" max="8" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15" style="3" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>11</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>44249</v>
       </c>
+      <c r="B2" s="1">
+        <v>20</v>
+      </c>
       <c r="C2" s="1">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1">
         <f>360+48</f>
         <v>408</v>
       </c>
-      <c r="E2" s="1">
+      <c r="D2" s="1">
         <f>480+49</f>
         <v>529</v>
       </c>
+      <c r="E2" s="3">
+        <v>107.31</v>
+      </c>
       <c r="F2" s="3">
-        <v>107.31</v>
+        <v>15.5</v>
       </c>
       <c r="G2" s="3">
-        <v>15.5</v>
+        <v>13.22</v>
       </c>
       <c r="H2" s="3">
-        <v>13.22</v>
+        <v>0</v>
       </c>
       <c r="I2" s="3">
         <v>0</v>
@@ -521,127 +512,118 @@
         <v>0</v>
       </c>
       <c r="L2" s="3">
-        <v>0</v>
+        <f>SUM(E2:K2)</f>
+        <v>136.03</v>
       </c>
       <c r="M2" s="3">
-        <f>SUM(F2:L2)</f>
+        <f>L2-I2</f>
         <v>136.03</v>
       </c>
-      <c r="N2" s="3">
-        <f>M2-J2</f>
-        <v>136.03</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>44263</v>
       </c>
+      <c r="B3" s="1">
+        <v>4</v>
+      </c>
       <c r="C3" s="1">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1">
         <f>60+55</f>
         <v>115</v>
       </c>
-      <c r="E3" s="1">
+      <c r="D3" s="1">
         <f>126</f>
         <v>126</v>
       </c>
+      <c r="E3" s="3">
+        <v>34.130000000000003</v>
+      </c>
       <c r="F3" s="3">
-        <v>34.130000000000003</v>
+        <v>8.07</v>
       </c>
       <c r="G3" s="3">
-        <v>8.07</v>
+        <v>2.7</v>
       </c>
       <c r="H3" s="3">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
       </c>
       <c r="J3" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K3" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L3" s="3">
-        <v>0</v>
+        <f t="shared" ref="L3:L16" si="0">SUM(E3:K3)</f>
+        <v>59.900000000000006</v>
       </c>
       <c r="M3" s="3">
-        <f t="shared" ref="M3:M16" si="0">SUM(F3:L3)</f>
+        <f t="shared" ref="M3:M16" si="1">L3-I3</f>
         <v>59.900000000000006</v>
       </c>
-      <c r="N3" s="3">
-        <f t="shared" ref="N3:N16" si="1">M3-J3</f>
-        <v>59.900000000000006</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>44270</v>
       </c>
+      <c r="B4" s="1">
+        <v>39</v>
+      </c>
       <c r="C4" s="1">
-        <v>39</v>
-      </c>
-      <c r="D4" s="1">
         <f>19*60+25</f>
         <v>1165</v>
       </c>
-      <c r="E4" s="1">
+      <c r="D4" s="1">
         <f>20*60</f>
         <v>1200</v>
       </c>
+      <c r="E4" s="3">
+        <v>347.94</v>
+      </c>
       <c r="F4" s="3">
-        <v>347.94</v>
+        <v>21.79</v>
       </c>
       <c r="G4" s="3">
-        <v>21.79</v>
+        <v>85.57</v>
       </c>
       <c r="H4" s="3">
-        <v>85.57</v>
+        <v>8.74</v>
       </c>
       <c r="I4" s="3">
-        <v>8.74</v>
+        <v>13.5</v>
       </c>
       <c r="J4" s="3">
-        <v>13.5</v>
+        <v>165</v>
       </c>
       <c r="K4" s="3">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
         <f t="shared" si="0"/>
         <v>642.54</v>
       </c>
-      <c r="N4" s="3">
+      <c r="M4" s="3">
         <f t="shared" si="1"/>
         <v>629.04</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>44277</v>
       </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>0</v>
       </c>
       <c r="F5" s="3">
@@ -663,127 +645,118 @@
         <v>0</v>
       </c>
       <c r="L5" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M5" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>44284</v>
       </c>
+      <c r="B6" s="1">
+        <v>57</v>
+      </c>
       <c r="C6" s="1">
-        <v>57</v>
-      </c>
-      <c r="D6" s="1">
         <f>21*60+59</f>
         <v>1319</v>
       </c>
-      <c r="E6" s="1">
+      <c r="D6" s="1">
         <f>23*60+21</f>
         <v>1401</v>
       </c>
+      <c r="E6" s="3">
+        <v>375.93</v>
+      </c>
       <c r="F6" s="3">
-        <v>375.93</v>
+        <v>48.41</v>
       </c>
       <c r="G6" s="3">
-        <v>48.41</v>
+        <v>156.4</v>
       </c>
       <c r="H6" s="3">
-        <v>156.4</v>
+        <v>2</v>
       </c>
       <c r="I6" s="3">
-        <v>2</v>
+        <v>9.6</v>
       </c>
       <c r="J6" s="3">
-        <v>9.6</v>
+        <v>255</v>
       </c>
       <c r="K6" s="3">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3">
         <f t="shared" si="0"/>
         <v>847.34</v>
       </c>
-      <c r="N6" s="3">
+      <c r="M6" s="3">
         <f t="shared" si="1"/>
         <v>837.74</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>44291</v>
       </c>
+      <c r="B7" s="1">
+        <v>21</v>
+      </c>
       <c r="C7" s="1">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1">
         <f>640+36</f>
         <v>676</v>
       </c>
-      <c r="E7" s="1">
+      <c r="D7" s="1">
         <f>609</f>
         <v>609</v>
       </c>
+      <c r="E7" s="3">
+        <v>139.80000000000001</v>
+      </c>
       <c r="F7" s="3">
-        <v>139.80000000000001</v>
+        <v>12.9</v>
       </c>
       <c r="G7" s="3">
-        <v>12.9</v>
+        <v>19.28</v>
       </c>
       <c r="H7" s="3">
-        <v>19.28</v>
+        <v>2</v>
       </c>
       <c r="I7" s="3">
-        <v>2</v>
+        <v>3.38</v>
       </c>
       <c r="J7" s="3">
-        <v>3.38</v>
+        <v>90</v>
       </c>
       <c r="K7" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
         <f t="shared" si="0"/>
         <v>267.36</v>
       </c>
-      <c r="N7" s="3">
+      <c r="M7" s="3">
         <f t="shared" si="1"/>
         <v>263.98</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>44298</v>
       </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
       <c r="C8" s="1">
         <v>0</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="3">
         <v>0</v>
       </c>
       <c r="F8" s="3">
@@ -805,632 +778,1048 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M8" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>44305</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N8" s="3">
+      <c r="M9" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2">
-        <v>44305</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>44312</v>
       </c>
+      <c r="B10" s="1">
+        <v>20</v>
+      </c>
       <c r="C10" s="1">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1">
         <f>480+48</f>
         <v>528</v>
       </c>
-      <c r="E10" s="1">
+      <c r="D10" s="1">
         <f>604</f>
         <v>604</v>
       </c>
+      <c r="E10" s="3">
+        <v>127.87</v>
+      </c>
       <c r="F10" s="3">
-        <v>127.87</v>
+        <v>2</v>
       </c>
       <c r="G10" s="3">
-        <v>2</v>
+        <v>23.42</v>
       </c>
       <c r="H10" s="3">
-        <v>23.42</v>
+        <v>12.61</v>
       </c>
       <c r="I10" s="3">
-        <v>12.61</v>
+        <v>3</v>
       </c>
       <c r="J10" s="3">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="K10" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
         <f t="shared" si="0"/>
         <v>258.90000000000003</v>
       </c>
-      <c r="N10" s="3">
+      <c r="M10" s="3">
         <f t="shared" si="1"/>
         <v>255.90000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>44319</v>
       </c>
+      <c r="B11" s="1">
+        <v>74</v>
+      </c>
       <c r="C11" s="1">
-        <v>74</v>
-      </c>
-      <c r="D11" s="1">
         <f>33*60</f>
         <v>1980</v>
       </c>
-      <c r="E11" s="1">
+      <c r="D11" s="1">
         <f>35*60</f>
         <v>2100</v>
       </c>
+      <c r="E11" s="3">
+        <v>587.22</v>
+      </c>
       <c r="F11" s="3">
-        <v>587.22</v>
+        <v>37.36</v>
       </c>
       <c r="G11" s="3">
-        <v>37.36</v>
+        <v>103.14</v>
       </c>
       <c r="H11" s="3">
-        <v>103.14</v>
+        <v>0</v>
       </c>
       <c r="I11" s="3">
-        <v>0</v>
+        <v>10.75</v>
       </c>
       <c r="J11" s="3">
-        <v>10.75</v>
+        <v>345</v>
       </c>
       <c r="K11" s="3">
-        <v>345</v>
+        <v>0</v>
       </c>
       <c r="L11" s="3">
-        <v>0</v>
-      </c>
-      <c r="M11" s="3">
         <f t="shared" si="0"/>
         <v>1083.47</v>
       </c>
-      <c r="N11" s="3">
+      <c r="M11" s="3">
         <f t="shared" si="1"/>
         <v>1072.72</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>44326</v>
       </c>
+      <c r="B12" s="1">
+        <v>57</v>
+      </c>
       <c r="C12" s="1">
-        <v>57</v>
-      </c>
-      <c r="D12" s="1">
         <f>26*60</f>
         <v>1560</v>
       </c>
-      <c r="E12" s="1">
+      <c r="D12" s="1">
         <f>27*60</f>
         <v>1620</v>
       </c>
+      <c r="E12" s="3">
+        <v>477.35</v>
+      </c>
       <c r="F12" s="3">
-        <v>477.35</v>
+        <v>17</v>
       </c>
       <c r="G12" s="3">
-        <v>17</v>
+        <v>137.68</v>
       </c>
       <c r="H12" s="3">
-        <v>137.68</v>
+        <v>2.87</v>
       </c>
       <c r="I12" s="3">
-        <v>2.87</v>
+        <v>26.65</v>
       </c>
       <c r="J12" s="3">
-        <v>26.65</v>
+        <v>270</v>
       </c>
       <c r="K12" s="3">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
         <f t="shared" si="0"/>
         <v>931.55</v>
       </c>
-      <c r="N12" s="3">
+      <c r="M12" s="3">
         <f t="shared" si="1"/>
         <v>904.9</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>44333</v>
       </c>
+      <c r="B13" s="1">
+        <v>52</v>
+      </c>
       <c r="C13" s="1">
-        <v>52</v>
-      </c>
-      <c r="D13" s="1">
         <f>22*60+20</f>
         <v>1340</v>
       </c>
-      <c r="E13" s="1">
+      <c r="D13" s="1">
         <f>24*90+26</f>
         <v>2186</v>
       </c>
+      <c r="E13" s="3">
+        <v>358.32</v>
+      </c>
       <c r="F13" s="3">
-        <v>358.32</v>
+        <v>16.8</v>
       </c>
       <c r="G13" s="3">
-        <v>16.8</v>
+        <v>34.049999999999997</v>
       </c>
       <c r="H13" s="3">
-        <v>34.049999999999997</v>
+        <v>16.11</v>
       </c>
       <c r="I13" s="3">
-        <v>16.11</v>
+        <v>13.65</v>
       </c>
       <c r="J13" s="3">
-        <v>13.65</v>
+        <v>0</v>
       </c>
       <c r="K13" s="3">
         <v>0</v>
       </c>
       <c r="L13" s="3">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3">
         <f t="shared" si="0"/>
         <v>438.93</v>
       </c>
-      <c r="N13" s="3">
+      <c r="M13" s="3">
         <f t="shared" si="1"/>
         <v>425.28000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>44340</v>
       </c>
+      <c r="B14" s="1">
+        <v>47</v>
+      </c>
       <c r="C14" s="1">
-        <v>47</v>
-      </c>
-      <c r="D14" s="1">
         <f>22*60+15</f>
         <v>1335</v>
       </c>
-      <c r="E14" s="1">
+      <c r="D14" s="1">
         <f>26*60</f>
         <v>1560</v>
       </c>
+      <c r="E14" s="3">
+        <v>442.25</v>
+      </c>
       <c r="F14" s="3">
-        <v>442.25</v>
+        <v>19</v>
       </c>
       <c r="G14" s="3">
-        <v>19</v>
+        <v>34.869999999999997</v>
       </c>
       <c r="H14" s="3">
-        <v>34.869999999999997</v>
+        <v>14.52</v>
       </c>
       <c r="I14" s="3">
-        <v>14.52</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
-        <v>0</v>
+        <v>630.44000000000005</v>
       </c>
       <c r="L14" s="3">
-        <v>630.44000000000005</v>
-      </c>
-      <c r="M14" s="3">
         <f t="shared" si="0"/>
         <v>1141.08</v>
       </c>
-      <c r="N14" s="3">
+      <c r="M14" s="3">
         <f t="shared" si="1"/>
         <v>1141.08</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>44347</v>
       </c>
+      <c r="B15" s="1">
+        <v>57</v>
+      </c>
       <c r="C15" s="1">
-        <v>57</v>
-      </c>
-      <c r="D15" s="1">
         <f>23*60+42</f>
         <v>1422</v>
       </c>
-      <c r="E15" s="1">
+      <c r="D15" s="1">
         <f>26*60</f>
         <v>1560</v>
       </c>
+      <c r="E15" s="3">
+        <v>379.97</v>
+      </c>
       <c r="F15" s="3">
-        <v>379.97</v>
+        <v>40.76</v>
       </c>
       <c r="G15" s="3">
-        <v>40.76</v>
+        <v>13.91</v>
       </c>
       <c r="H15" s="3">
-        <v>13.91</v>
+        <v>20.13</v>
       </c>
       <c r="I15" s="3">
-        <v>20.13</v>
+        <v>3.41</v>
       </c>
       <c r="J15" s="3">
-        <v>3.41</v>
-      </c>
-      <c r="K15" s="3">
         <v>270</v>
       </c>
       <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
         <f t="shared" si="0"/>
         <v>728.18000000000006</v>
       </c>
-      <c r="N15" s="3">
+      <c r="M15" s="3">
         <f t="shared" si="1"/>
         <v>724.7700000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>44354</v>
       </c>
+      <c r="B16" s="1">
+        <v>61</v>
+      </c>
       <c r="C16" s="1">
-        <v>61</v>
-      </c>
-      <c r="D16" s="1">
         <f>26*60</f>
         <v>1560</v>
       </c>
-      <c r="E16" s="1">
+      <c r="D16" s="1">
         <f>32*60</f>
         <v>1920</v>
       </c>
+      <c r="E16" s="3">
+        <v>487.57</v>
+      </c>
       <c r="F16" s="3">
-        <v>487.57</v>
+        <v>26.74</v>
       </c>
       <c r="G16" s="3">
-        <v>26.74</v>
+        <v>22.71</v>
       </c>
       <c r="H16" s="3">
-        <v>22.71</v>
+        <v>11.14</v>
       </c>
       <c r="I16" s="3">
-        <v>11.14</v>
+        <v>7.3</v>
       </c>
       <c r="J16" s="3">
-        <v>7.3</v>
-      </c>
-      <c r="K16" s="3">
         <v>279</v>
       </c>
       <c r="L16" s="3">
-        <v>0</v>
-      </c>
-      <c r="M16" s="3">
         <f t="shared" si="0"/>
         <v>834.45999999999992</v>
       </c>
-      <c r="N16" s="1">
+      <c r="M16" s="1">
         <f t="shared" si="1"/>
         <v>827.16</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>44361</v>
       </c>
+      <c r="B17" s="1">
+        <v>57</v>
+      </c>
       <c r="C17" s="1">
-        <v>57</v>
-      </c>
-      <c r="D17" s="1">
         <f>27*60</f>
         <v>1620</v>
       </c>
-      <c r="E17" s="1">
+      <c r="D17" s="1">
         <f>30*60</f>
         <v>1800</v>
       </c>
+      <c r="E17" s="3">
+        <v>536.59</v>
+      </c>
       <c r="F17" s="3">
-        <v>536.59</v>
+        <v>47.64</v>
       </c>
       <c r="G17" s="3">
-        <v>47.64</v>
+        <v>72.78</v>
       </c>
       <c r="H17" s="3">
-        <v>72.78</v>
+        <v>17.77</v>
       </c>
       <c r="I17" s="3">
-        <v>17.77</v>
+        <v>19.579999999999998</v>
       </c>
       <c r="J17" s="3">
-        <v>19.579999999999998</v>
-      </c>
-      <c r="K17" s="3">
         <v>255</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <f t="shared" ref="M17:M18" si="2">SUM(F17:L17)</f>
+        <f t="shared" ref="L17:L18" si="2">SUM(E17:K17)</f>
         <v>949.36</v>
       </c>
-      <c r="N17" s="1">
-        <f t="shared" ref="N17:N18" si="3">M17-J17</f>
+      <c r="M17" s="1">
+        <f t="shared" ref="M17:M18" si="3">L17-I17</f>
         <v>929.78</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>44368</v>
       </c>
+      <c r="B18" s="1">
+        <v>33</v>
+      </c>
       <c r="C18" s="1">
-        <v>33</v>
-      </c>
-      <c r="D18" s="1">
         <f>14*60+22</f>
         <v>862</v>
       </c>
-      <c r="E18" s="1">
+      <c r="D18" s="1">
         <f>18*60+46</f>
         <v>1126</v>
       </c>
+      <c r="E18" s="3">
+        <v>253.27</v>
+      </c>
       <c r="F18" s="3">
-        <v>253.27</v>
+        <v>17.739999999999998</v>
       </c>
       <c r="G18" s="3">
-        <v>17.739999999999998</v>
+        <v>22.01</v>
       </c>
       <c r="H18" s="3">
-        <v>22.01</v>
+        <v>13.4</v>
       </c>
       <c r="I18" s="3">
-        <v>13.4</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
         <v>177</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
         <f t="shared" si="2"/>
         <v>483.41999999999996</v>
       </c>
-      <c r="N18" s="1">
+      <c r="M18" s="1">
         <f t="shared" si="3"/>
         <v>483.41999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>44375</v>
       </c>
+      <c r="B19" s="1">
+        <v>18</v>
+      </c>
       <c r="C19" s="1">
-        <v>18</v>
-      </c>
-      <c r="D19" s="1">
         <f>7*60+39</f>
         <v>459</v>
       </c>
-      <c r="E19" s="1">
+      <c r="D19" s="1">
         <f>8*60+26</f>
         <v>506</v>
       </c>
+      <c r="E19" s="3">
+        <v>127.89</v>
+      </c>
       <c r="F19" s="3">
-        <v>127.89</v>
-      </c>
-      <c r="G19" s="3">
         <v>11</v>
       </c>
+      <c r="H19" s="3">
+        <v>2.4900000000000002</v>
+      </c>
       <c r="I19" s="3">
-        <v>2.4900000000000002</v>
+        <v>4.2</v>
       </c>
       <c r="J19" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="K19" s="3">
         <v>87</v>
       </c>
       <c r="L19" s="3">
-        <v>0</v>
-      </c>
-      <c r="M19" s="3">
-        <f t="shared" ref="M19" si="4">SUM(F19:L19)</f>
+        <f t="shared" ref="L19" si="4">SUM(E19:K19)</f>
         <v>232.57999999999998</v>
       </c>
-      <c r="N19" s="1">
-        <f t="shared" ref="N19" si="5">M19-J19</f>
+      <c r="M19" s="1">
+        <f t="shared" ref="M19" si="5">L19-I19</f>
         <v>228.38</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>44382</v>
       </c>
+      <c r="B20" s="1">
+        <v>12</v>
+      </c>
       <c r="C20" s="1">
-        <v>12</v>
-      </c>
-      <c r="D20" s="1">
         <f>4*60+40</f>
         <v>280</v>
       </c>
-      <c r="E20" s="1">
+      <c r="D20" s="1">
         <f>6*60+25</f>
         <v>385</v>
       </c>
+      <c r="E20" s="3">
+        <v>100.73</v>
+      </c>
       <c r="F20" s="3">
-        <v>100.73</v>
-      </c>
-      <c r="G20" s="3">
         <v>3</v>
       </c>
+      <c r="H20" s="3">
+        <v>2.2799999999999998</v>
+      </c>
       <c r="I20" s="3">
-        <v>2.2799999999999998</v>
+        <v>6.25</v>
       </c>
       <c r="J20" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="K20" s="3">
         <v>60</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <f t="shared" ref="M20" si="6">SUM(F20:L20)</f>
+        <f t="shared" ref="L20" si="6">SUM(E20:K20)</f>
         <v>172.26</v>
       </c>
-      <c r="N20" s="1">
-        <f t="shared" ref="N20" si="7">M20-J20</f>
+      <c r="M20" s="1">
+        <f t="shared" ref="M20" si="7">L20-I20</f>
         <v>166.01</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>44389</v>
       </c>
+      <c r="B21" s="1">
+        <v>87</v>
+      </c>
       <c r="C21" s="1">
-        <v>87</v>
-      </c>
-      <c r="D21" s="1">
         <f>30*60</f>
         <v>1800</v>
       </c>
-      <c r="E21" s="1">
+      <c r="D21" s="1">
         <f>49*60</f>
         <v>2940</v>
       </c>
+      <c r="E21" s="3">
+        <v>653.25</v>
+      </c>
       <c r="F21" s="3">
-        <v>653.25</v>
+        <v>38.54</v>
       </c>
       <c r="G21" s="3">
-        <v>38.54</v>
+        <v>13.02</v>
       </c>
       <c r="H21" s="3">
-        <v>13.02</v>
+        <v>6.46</v>
       </c>
       <c r="I21" s="3">
-        <v>6.46</v>
+        <v>30</v>
       </c>
       <c r="J21" s="3">
-        <v>30</v>
-      </c>
-      <c r="K21" s="3">
         <f>225+231</f>
         <v>456</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
-        <f t="shared" ref="M21" si="8">SUM(F21:L21)</f>
+        <f t="shared" ref="L21" si="8">SUM(E21:K21)</f>
         <v>1197.27</v>
       </c>
-      <c r="N21" s="1">
-        <f t="shared" ref="N21" si="9">M21-J21</f>
+      <c r="M21" s="1">
+        <f t="shared" ref="M21" si="9">L21-I21</f>
         <v>1167.27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>44396</v>
+      </c>
+      <c r="B22" s="1">
+        <v>29</v>
+      </c>
+      <c r="C22" s="1">
+        <f>11*60+37</f>
+        <v>697</v>
+      </c>
+      <c r="D22" s="1">
+        <f>23*60+17</f>
+        <v>1397</v>
+      </c>
+      <c r="E22" s="3">
+        <v>209.98</v>
+      </c>
+      <c r="F22" s="3">
+        <v>31.71</v>
+      </c>
+      <c r="G22" s="3">
+        <f>12.91+115</f>
+        <v>127.91</v>
+      </c>
+      <c r="I22" s="3">
+        <v>5.95</v>
+      </c>
+      <c r="J22" s="3">
+        <v>156</v>
+      </c>
+      <c r="L22" s="3">
+        <f t="shared" ref="L22:L34" si="10">SUM(E22:K22)</f>
+        <v>531.54999999999995</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" ref="M22:M34" si="11">L22-I22</f>
+        <v>525.59999999999991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>44403</v>
+      </c>
+      <c r="B23" s="1">
+        <v>29</v>
+      </c>
+      <c r="C23" s="1">
+        <f>11*60+49</f>
+        <v>709</v>
+      </c>
+      <c r="D23" s="1">
+        <f>18*60+3</f>
+        <v>1083</v>
+      </c>
+      <c r="E23" s="3">
+        <v>222.01</v>
+      </c>
+      <c r="F23" s="3">
+        <v>16.23</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="H23" s="3">
+        <v>2</v>
+      </c>
+      <c r="I23" s="3">
+        <v>9.6</v>
+      </c>
+      <c r="J23" s="3">
+        <v>114</v>
+      </c>
+      <c r="L23" s="3">
+        <f t="shared" si="10"/>
+        <v>365.34</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="11"/>
+        <v>355.73999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>44410</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1">
+        <f>60*2+31</f>
+        <v>151</v>
+      </c>
+      <c r="D24" s="1">
+        <f>60*3+45</f>
+        <v>225</v>
+      </c>
+      <c r="E24" s="3">
+        <v>24.29</v>
+      </c>
+      <c r="H24" s="3">
+        <v>5.17</v>
+      </c>
+      <c r="J24" s="3">
+        <v>15</v>
+      </c>
+      <c r="L24" s="3">
+        <f t="shared" si="10"/>
+        <v>44.46</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="11"/>
+        <v>44.46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>44424</v>
+      </c>
+      <c r="B25" s="1">
+        <v>21</v>
+      </c>
+      <c r="C25" s="1">
+        <f>8*60+40</f>
+        <v>520</v>
+      </c>
+      <c r="D25" s="1">
+        <f>11*60+10</f>
+        <v>670</v>
+      </c>
+      <c r="E25" s="3">
+        <v>188.45</v>
+      </c>
+      <c r="F25" s="3">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="G25" s="3">
+        <v>2.63</v>
+      </c>
+      <c r="H25" s="3">
+        <v>2</v>
+      </c>
+      <c r="I25" s="3">
+        <v>8.65</v>
+      </c>
+      <c r="J25" s="3">
+        <v>84</v>
+      </c>
+      <c r="L25" s="3">
+        <f t="shared" si="10"/>
+        <v>294.2</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="11"/>
+        <v>285.55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>44431</v>
+      </c>
+      <c r="B26" s="1">
+        <v>31</v>
+      </c>
+      <c r="C26" s="1">
+        <f>14*60+43</f>
+        <v>883</v>
+      </c>
+      <c r="D26" s="1">
+        <f>22*60+7</f>
+        <v>1327</v>
+      </c>
+      <c r="E26" s="3">
+        <v>301.27</v>
+      </c>
+      <c r="F26" s="3">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="H26" s="3">
+        <v>4.78</v>
+      </c>
+      <c r="I26" s="3">
+        <v>21.3</v>
+      </c>
+      <c r="J26" s="3">
+        <v>150</v>
+      </c>
+      <c r="L26" s="3">
+        <f t="shared" si="10"/>
+        <v>512.29999999999995</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" si="11"/>
+        <v>490.99999999999994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>44445</v>
+      </c>
+      <c r="B27" s="1">
+        <v>13</v>
+      </c>
+      <c r="C27" s="1">
+        <v>347</v>
+      </c>
+      <c r="D27" s="1">
+        <v>447</v>
+      </c>
+      <c r="E27" s="3">
+        <v>129.11000000000001</v>
+      </c>
+      <c r="F27" s="3">
+        <v>22.01</v>
+      </c>
+      <c r="G27" s="3">
+        <v>7.95</v>
+      </c>
+      <c r="I27" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="J27" s="3">
+        <v>69</v>
+      </c>
+      <c r="L27" s="3">
+        <f t="shared" si="10"/>
+        <v>235.17</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" si="11"/>
+        <v>228.07</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>44452</v>
+      </c>
+      <c r="B28" s="1">
+        <v>62</v>
+      </c>
+      <c r="C28" s="1">
+        <f>22*60+5</f>
+        <v>1325</v>
+      </c>
+      <c r="D28" s="1">
+        <f>60*25</f>
+        <v>1500</v>
+      </c>
+      <c r="E28" s="3">
+        <v>428.57</v>
+      </c>
+      <c r="F28" s="3">
+        <v>90.93</v>
+      </c>
+      <c r="G28" s="3">
+        <f>23.26+206</f>
+        <v>229.26</v>
+      </c>
+      <c r="H28" s="3">
+        <v>4.66</v>
+      </c>
+      <c r="I28" s="3">
+        <v>24.52</v>
+      </c>
+      <c r="J28" s="3">
+        <v>303</v>
+      </c>
+      <c r="L28" s="3">
+        <f t="shared" si="10"/>
+        <v>1080.94</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="11"/>
+        <v>1056.42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>44466</v>
+      </c>
+      <c r="B29" s="1">
+        <v>43</v>
+      </c>
+      <c r="C29" s="1">
+        <f>60*16+2</f>
+        <v>962</v>
+      </c>
+      <c r="D29" s="1">
+        <f>60*20+30</f>
+        <v>1230</v>
+      </c>
+      <c r="E29" s="3">
+        <v>328.11</v>
+      </c>
+      <c r="F29" s="3">
+        <v>22.2</v>
+      </c>
+      <c r="G29" s="3">
+        <v>10.91</v>
+      </c>
+      <c r="H29" s="3">
+        <v>2</v>
+      </c>
+      <c r="I29" s="3">
+        <v>10.02</v>
+      </c>
+      <c r="J29" s="3">
+        <v>195</v>
+      </c>
+      <c r="L29" s="3">
+        <f t="shared" si="10"/>
+        <v>568.24</v>
+      </c>
+      <c r="M29" s="1">
+        <f t="shared" si="11"/>
+        <v>558.22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>44473</v>
+      </c>
+      <c r="B30" s="1">
+        <v>64</v>
+      </c>
+      <c r="C30" s="1">
+        <f>24*60+1</f>
+        <v>1441</v>
+      </c>
+      <c r="D30" s="1">
+        <f>60*29</f>
+        <v>1740</v>
+      </c>
+      <c r="E30" s="3">
+        <v>485.34</v>
+      </c>
+      <c r="F30" s="3">
+        <v>42.19</v>
+      </c>
+      <c r="G30" s="3">
+        <v>16.739999999999998</v>
+      </c>
+      <c r="H30" s="3">
+        <v>2</v>
+      </c>
+      <c r="I30" s="3">
+        <v>32.86</v>
+      </c>
+      <c r="J30" s="3">
+        <v>330</v>
+      </c>
+      <c r="L30" s="3">
+        <f t="shared" si="10"/>
+        <v>909.13</v>
+      </c>
+      <c r="M30" s="1">
+        <f t="shared" si="11"/>
+        <v>876.27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>44480</v>
+      </c>
+      <c r="B31" s="1">
+        <v>48</v>
+      </c>
+      <c r="C31" s="1">
+        <f>60*18+42</f>
+        <v>1122</v>
+      </c>
+      <c r="D31" s="1">
+        <f>60*21+46</f>
+        <v>1306</v>
+      </c>
+      <c r="E31" s="3">
+        <v>344.88</v>
+      </c>
+      <c r="F31" s="3">
+        <v>63.09</v>
+      </c>
+      <c r="G31" s="3">
+        <v>7.31</v>
+      </c>
+      <c r="H31" s="3">
+        <v>4</v>
+      </c>
+      <c r="I31" s="3">
+        <v>28.58</v>
+      </c>
+      <c r="J31" s="3">
+        <v>258</v>
+      </c>
+      <c r="L31" s="3">
+        <f t="shared" si="10"/>
+        <v>705.86</v>
+      </c>
+      <c r="M31" s="1">
+        <f t="shared" si="11"/>
+        <v>677.28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>44487</v>
+      </c>
+      <c r="B32" s="1">
+        <v>49</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1254</v>
+      </c>
+      <c r="D32" s="1">
+        <f>25*60</f>
+        <v>1500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>470.87</v>
+      </c>
+      <c r="F32" s="3">
+        <v>61.63</v>
+      </c>
+      <c r="G32" s="3">
+        <v>14</v>
+      </c>
+      <c r="I32" s="3">
+        <v>37.54</v>
+      </c>
+      <c r="J32" s="3">
+        <v>237</v>
+      </c>
+      <c r="L32" s="3">
+        <f t="shared" si="10"/>
+        <v>821.04</v>
+      </c>
+      <c r="M32" s="1">
+        <f t="shared" si="11"/>
+        <v>783.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>44494</v>
+      </c>
+      <c r="B33" s="1">
+        <v>42</v>
+      </c>
+      <c r="C33" s="1">
+        <f>60*16+59</f>
+        <v>1019</v>
+      </c>
+      <c r="D33" s="1">
+        <f>60*19+49</f>
+        <v>1189</v>
+      </c>
+      <c r="E33" s="3">
+        <v>391.57</v>
+      </c>
+      <c r="F33" s="3">
+        <v>42.55</v>
+      </c>
+      <c r="H33" s="3">
+        <v>2</v>
+      </c>
+      <c r="I33" s="3">
+        <v>15.06</v>
+      </c>
+      <c r="J33" s="3">
+        <v>207</v>
+      </c>
+      <c r="L33" s="3">
+        <f t="shared" si="10"/>
+        <v>658.18000000000006</v>
+      </c>
+      <c r="M33" s="1">
+        <f t="shared" si="11"/>
+        <v>643.12000000000012</v>
       </c>
     </row>
   </sheetData>
